--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjrm5\Documents\Civil Service\DLUHC\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB0E03-0817-435A-B162-18C684ECBF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB26D8-F3EF-4A31-8D9D-4C480542CFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="661" firstSheet="5" activeTab="13" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -3637,94 +3637,94 @@
     <t>PF-USER_SIGN-OFF-DATE-END</t>
   </si>
   <si>
-    <t>PF-BACKEND_GLOBAL-DROPDOWN-PLACEHOLDER-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_GLOBAL-DROPDOWN-PLACEHOLDER-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_REPORTING-PERIOD-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_REPORTING-PERIOD-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_ORGANISATION-NAME-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_ORGANISATION-NAME-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RAG-RATING-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RAG-RATING-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_STANDARD-OUTPUT-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_STANDARD-OUTPUT-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_STANDARD-OUTCOME-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_STANDARD-OUTCOME-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_UNIT-OF-MEASUREMENT-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_UNIT-OF-MEASUREMENT-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_INTERVENTION-THEME-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_INTERVENTION-THEME-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_CREDIBLE-PLAN-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_CREDIBLE-PLAN-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_ACTUAL-FORECAST-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_ACTUAL-FORECAST-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RISK-CATEGORY-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RISK-CATEGORY-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RISK-SCORE-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_RISK-SCORE-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_PROJECT-DETAILS-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_PROJECT-DETAILS-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_BESPOKE-OUTPUT-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_BESPOKE-OUTPUT-END</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_BESPOKE-OUTCOME-START</t>
-  </si>
-  <si>
-    <t>PF-BACKEND_BESPOKE-OUTCOME-END</t>
+    <t>PF-CONTROL_GLOBAL-DROPDOWN-PLACEHOLDER-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_GLOBAL-DROPDOWN-PLACEHOLDER-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_REPORTING-PERIOD-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_REPORTING-PERIOD-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_ORGANISATION-NAME-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_ORGANISATION-NAME-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RAG-RATING-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RAG-RATING-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_STANDARD-OUTPUT-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_STANDARD-OUTPUT-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_STANDARD-OUTCOME-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_STANDARD-OUTCOME-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_UNIT-OF-MEASUREMENT-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_UNIT-OF-MEASUREMENT-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_INTERVENTION-THEME-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_INTERVENTION-THEME-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_CREDIBLE-PLAN-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_CREDIBLE-PLAN-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_ACTUAL-FORECAST-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_ACTUAL-FORECAST-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RISK-CATEGORY-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RISK-CATEGORY-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RISK-SCORE-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_RISK-SCORE-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_PROJECT-DETAILS-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_PROJECT-DETAILS-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_BESPOKE-OUTPUT-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_BESPOKE-OUTPUT-END</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_BESPOKE-OUTCOME-START</t>
+  </si>
+  <si>
+    <t>PF-CONTROL_BESPOKE-OUTCOME-END</t>
   </si>
 </sst>
 </file>
@@ -7546,7 +7546,9 @@
   </sheetPr>
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15269,7 +15271,7 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16576,7 +16578,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{0F09E1AE-376D-4ED6-9E64-F8E93A849F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9FE793-47C5-4322-BC3B-DA941B1D9245}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{0F09E1AE-376D-4ED6-9E64-F8E93A849F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136E058E-C93A-49B7-BFF7-A474B6C58305}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="5" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="5" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -6114,12 +6114,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6138,6 +6132,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6147,20 +6168,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6192,29 +6210,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6237,18 +6279,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6257,18 +6287,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,12 +6297,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6292,6 +6304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6315,41 +6333,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6381,83 +6402,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,105 +6429,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6576,6 +6437,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6639,6 +6503,142 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7646,10 +7646,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -16327,10 +16327,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16340,16 +16340,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16361,138 +16361,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16539,6 +16539,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16549,16 +16559,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17614,12 +17614,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17634,34 +17634,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="225" t="s">
         <v>1070</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17671,37 +17671,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18133,34 +18133,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1080</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18172,34 +18172,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1081</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18224,14 +18224,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18241,6 +18233,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="47" priority="1">
@@ -18626,14 +18626,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18752,14 +18752,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18816,14 +18816,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18880,14 +18880,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18947,13 +18947,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19013,13 +19013,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19079,13 +19079,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19145,13 +19145,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19211,13 +19211,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19277,13 +19277,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19487,60 +19487,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19565,13 +19565,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19586,7 +19586,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19601,13 +19601,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19616,19 +19616,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19653,13 +19653,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19672,7 +19672,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19685,9 +19685,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19696,19 +19696,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21499,37 +21499,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21541,18 +21541,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21577,13 +21577,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21598,7 +21598,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21613,13 +21613,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21628,19 +21628,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21665,13 +21665,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21684,7 +21684,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21697,9 +21697,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21708,19 +21708,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29355,6 +29355,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29371,37 +29402,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29546,7 +29546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -29616,14 +29616,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29704,14 +29704,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29749,14 +29749,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29794,14 +29794,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29842,13 +29842,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29889,13 +29889,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29936,13 +29936,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29983,13 +29983,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30030,13 +30030,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30077,13 +30077,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30230,37 +30230,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30289,9 +30289,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30328,10 +30328,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30358,9 +30358,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30391,8 +30391,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31472,9 +31472,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31727,37 +31727,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31786,9 +31786,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31825,10 +31825,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31855,9 +31855,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31874,7 +31874,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31887,9 +31887,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37457,25 +37457,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37485,11 +37471,25 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:J18">
     <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
@@ -37581,8 +37581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="K76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView tabSelected="1" topLeftCell="J66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74:Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37607,15 +37607,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37643,15 +37643,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37679,15 +37679,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37750,18 +37750,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37788,16 +37788,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37824,16 +37824,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37860,7 +37860,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37894,7 +37894,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38002,18 +38002,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38040,16 +38040,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38076,7 +38076,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38112,7 +38112,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38148,7 +38148,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38256,18 +38256,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38294,16 +38294,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38330,16 +38330,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38366,7 +38366,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38402,7 +38402,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38510,18 +38510,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38548,16 +38548,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38584,16 +38584,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38620,16 +38620,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1091</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38656,13 +38656,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38730,18 +38730,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38768,16 +38768,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38804,16 +38804,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38840,7 +38840,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38876,7 +38876,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38949,22 +38949,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39021,28 +39021,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39065,11 +39065,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39084,7 +39084,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39099,10 +39099,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39123,11 +39123,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39140,7 +39140,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39153,8 +39153,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39750,15 +39750,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39786,15 +39786,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39822,15 +39822,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39858,15 +39858,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1092</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39894,12 +39894,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39968,15 +39968,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40004,15 +40004,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40040,15 +40040,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40076,15 +40076,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1093</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40295,41 +40295,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40349,41 +40349,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>424</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1094</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1095</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40401,45 +40401,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40459,45 +40459,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40517,45 +40517,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40575,45 +40575,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40633,45 +40633,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40691,45 +40691,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40749,45 +40749,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40807,45 +40807,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40865,45 +40865,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40923,45 +40923,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40981,45 +40981,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41039,45 +41039,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41097,45 +41097,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41155,45 +41155,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41213,45 +41213,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41271,45 +41271,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41329,45 +41329,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41490,6 +41490,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41514,177 +41685,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41776,12 +41776,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41822,12 +41822,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41867,12 +41867,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42266,23 +42266,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42557,23 +42546,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42600,9 +42595,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{0F09E1AE-376D-4ED6-9E64-F8E93A849F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9FE793-47C5-4322-BC3B-DA941B1D9245}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{0F09E1AE-376D-4ED6-9E64-F8E93A849F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB57F1D5-B1E6-4912-A230-F2B27DFA2D13}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="5" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="3" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Finances" sheetId="6" r:id="rId8"/>
     <sheet name="Risks" sheetId="7" r:id="rId9"/>
     <sheet name="Sign off" sheetId="8" r:id="rId10"/>
-    <sheet name="Dropdown Values" sheetId="19" state="hidden" r:id="rId11"/>
-    <sheet name="Project Details" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="ITValues" sheetId="20" state="hidden" r:id="rId13"/>
-    <sheet name="Bespoke Outputs" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="Bespoke Outcomes" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Dropdown Values" sheetId="19" r:id="rId11"/>
+    <sheet name="Project Details" sheetId="10" r:id="rId12"/>
+    <sheet name="ITValues" sheetId="20" r:id="rId13"/>
+    <sheet name="Bespoke Outputs" sheetId="14" r:id="rId14"/>
+    <sheet name="Bespoke Outcomes" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Project Details'!$A$2:$E$997</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1112">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -1334,9 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount of land made wheelchair accessible/step free </t>
-  </si>
-  <si>
-    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
   <si>
     <t>Amount of new educational space created</t>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7711,7 +7708,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7901,15 +7898,15 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -8193,12 +8190,12 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
         <v>299</v>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
         <v>299</v>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
         <v>299</v>
@@ -8231,7 +8228,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
         <v>299</v>
@@ -8242,7 +8239,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
@@ -8253,7 +8250,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>299</v>
@@ -8264,7 +8261,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -8275,7 +8272,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
@@ -8286,7 +8283,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -8298,7 +8295,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -8309,18 +8306,18 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
         <v>139</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
         <v>139</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -8353,7 +8350,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>139</v>
@@ -8375,7 +8372,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
         <v>139</v>
@@ -8386,7 +8383,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
         <v>139</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
@@ -8409,7 +8406,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
@@ -8420,7 +8417,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -8431,7 +8428,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
@@ -8442,7 +8439,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
         <v>139</v>
@@ -8453,83 +8450,83 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s">
         <v>331</v>
       </c>
-      <c r="B72" t="s">
-        <v>332</v>
-      </c>
       <c r="C72" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C78" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>297</v>
@@ -8554,7 +8551,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
         <v>139</v>
@@ -8565,10 +8562,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s">
         <v>342</v>
-      </c>
-      <c r="B83" t="s">
-        <v>343</v>
       </c>
       <c r="C83" s="125" t="s">
         <v>302</v>
@@ -8576,40 +8573,40 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
         <v>139</v>
@@ -8620,7 +8617,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
         <v>139</v>
@@ -8631,7 +8628,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
         <v>139</v>
@@ -8642,7 +8639,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
         <v>139</v>
@@ -8653,7 +8650,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" t="s">
         <v>139</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
@@ -8675,7 +8672,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -8686,7 +8683,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
@@ -8697,7 +8694,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
         <v>139</v>
@@ -8708,7 +8705,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
         <v>139</v>
@@ -8719,21 +8716,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="125" t="s">
         <v>305</v>
@@ -8741,10 +8738,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99" s="125" t="s">
         <v>300</v>
@@ -8752,10 +8749,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" s="125" t="s">
         <v>302</v>
@@ -8763,21 +8760,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" t="s">
         <v>359</v>
-      </c>
-      <c r="B102" t="s">
-        <v>360</v>
       </c>
       <c r="C102" s="125" t="s">
         <v>300</v>
@@ -8785,10 +8782,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C103" s="125" t="s">
         <v>300</v>
@@ -8796,23 +8793,23 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8828,7 +8825,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8843,22 +8840,22 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
@@ -8879,7 +8876,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
@@ -8899,17 +8896,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
@@ -8920,22 +8917,22 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
@@ -8956,12 +8953,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
@@ -8987,22 +8984,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
@@ -9013,132 +9010,132 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -9149,32 +9146,32 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9210,24 +9207,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
         <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
         <v>416</v>
-      </c>
-      <c r="E2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -9235,16 +9232,16 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
         <v>418</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>419</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -9252,16 +9249,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
         <v>422</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" t="s">
         <v>423</v>
-      </c>
-      <c r="D4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -9269,16 +9266,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" t="s">
         <v>425</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
         <v>426</v>
-      </c>
-      <c r="D5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -9286,16 +9283,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
         <v>428</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
         <v>429</v>
-      </c>
-      <c r="D6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -9303,16 +9300,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
         <v>431</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" t="s">
         <v>432</v>
-      </c>
-      <c r="D7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -9320,16 +9317,16 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
         <v>434</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" t="s">
         <v>435</v>
-      </c>
-      <c r="D8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -9337,16 +9334,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" t="s">
         <v>437</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" t="s">
         <v>438</v>
-      </c>
-      <c r="D9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9354,16 +9351,16 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" t="s">
         <v>440</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" t="s">
         <v>441</v>
-      </c>
-      <c r="D10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -9371,16 +9368,16 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
         <v>443</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" t="s">
         <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9388,16 +9385,16 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
         <v>446</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" t="s">
         <v>447</v>
-      </c>
-      <c r="D12" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9405,16 +9402,16 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
         <v>449</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" t="s">
         <v>450</v>
-      </c>
-      <c r="D13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9422,16 +9419,16 @@
         <v>277</v>
       </c>
       <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
         <v>452</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
         <v>453</v>
-      </c>
-      <c r="D14" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -9439,16 +9436,16 @@
         <v>277</v>
       </c>
       <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="s">
         <v>455</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s">
         <v>456</v>
-      </c>
-      <c r="D15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -9456,16 +9453,16 @@
         <v>277</v>
       </c>
       <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="s">
         <v>458</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s">
         <v>459</v>
-      </c>
-      <c r="D16" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -9473,16 +9470,16 @@
         <v>277</v>
       </c>
       <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" t="s">
         <v>461</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" t="s">
         <v>462</v>
-      </c>
-      <c r="D17" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -9490,16 +9487,16 @@
         <v>277</v>
       </c>
       <c r="B18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" t="s">
         <v>464</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
         <v>465</v>
-      </c>
-      <c r="D18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -9507,16 +9504,16 @@
         <v>277</v>
       </c>
       <c r="B19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" t="s">
         <v>467</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
         <v>468</v>
-      </c>
-      <c r="D19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -9524,16 +9521,16 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" t="s">
         <v>470</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" t="s">
         <v>471</v>
-      </c>
-      <c r="D20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -9541,16 +9538,16 @@
         <v>277</v>
       </c>
       <c r="B21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" t="s">
         <v>473</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
         <v>474</v>
-      </c>
-      <c r="D21" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -9558,16 +9555,16 @@
         <v>277</v>
       </c>
       <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" t="s">
         <v>476</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" t="s">
         <v>477</v>
-      </c>
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -9575,16 +9572,16 @@
         <v>277</v>
       </c>
       <c r="B23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" t="s">
         <v>479</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" t="s">
         <v>480</v>
-      </c>
-      <c r="D23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E23" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -9592,16 +9589,16 @@
         <v>277</v>
       </c>
       <c r="B24" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" t="s">
         <v>482</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" t="s">
         <v>483</v>
-      </c>
-      <c r="D24" t="s">
-        <v>420</v>
-      </c>
-      <c r="E24" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -9609,16 +9606,16 @@
         <v>277</v>
       </c>
       <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="s">
         <v>485</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" t="s">
         <v>486</v>
-      </c>
-      <c r="D25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9626,16 +9623,16 @@
         <v>277</v>
       </c>
       <c r="B26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" t="s">
         <v>488</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" t="s">
         <v>489</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9643,16 +9640,16 @@
         <v>277</v>
       </c>
       <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
         <v>491</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
         <v>492</v>
-      </c>
-      <c r="D27" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9660,16 +9657,16 @@
         <v>277</v>
       </c>
       <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
         <v>494</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" t="s">
         <v>495</v>
-      </c>
-      <c r="D28" t="s">
-        <v>420</v>
-      </c>
-      <c r="E28" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9677,16 +9674,16 @@
         <v>277</v>
       </c>
       <c r="B29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" t="s">
         <v>497</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" t="s">
         <v>498</v>
-      </c>
-      <c r="D29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9694,16 +9691,16 @@
         <v>277</v>
       </c>
       <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
         <v>500</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E30" t="s">
         <v>501</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -9711,16 +9708,16 @@
         <v>277</v>
       </c>
       <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
         <v>503</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" t="s">
         <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>420</v>
-      </c>
-      <c r="E31" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -9728,16 +9725,16 @@
         <v>277</v>
       </c>
       <c r="B32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" t="s">
         <v>506</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E32" t="s">
         <v>507</v>
-      </c>
-      <c r="D32" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9745,16 +9742,16 @@
         <v>277</v>
       </c>
       <c r="B33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" t="s">
         <v>509</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
         <v>510</v>
-      </c>
-      <c r="D33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E33" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9762,16 +9759,16 @@
         <v>277</v>
       </c>
       <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" t="s">
         <v>512</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" t="s">
         <v>513</v>
-      </c>
-      <c r="D34" t="s">
-        <v>420</v>
-      </c>
-      <c r="E34" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -9779,16 +9776,16 @@
         <v>277</v>
       </c>
       <c r="B35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" t="s">
         <v>515</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" t="s">
         <v>516</v>
-      </c>
-      <c r="D35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E35" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -9796,16 +9793,16 @@
         <v>277</v>
       </c>
       <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" t="s">
         <v>518</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
         <v>519</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
-      </c>
-      <c r="E36" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -9813,16 +9810,16 @@
         <v>277</v>
       </c>
       <c r="B37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C37" t="s">
         <v>521</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" t="s">
         <v>522</v>
-      </c>
-      <c r="D37" t="s">
-        <v>420</v>
-      </c>
-      <c r="E37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -9830,16 +9827,16 @@
         <v>277</v>
       </c>
       <c r="B38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C38" t="s">
         <v>524</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" t="s">
         <v>525</v>
-      </c>
-      <c r="D38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9847,16 +9844,16 @@
         <v>277</v>
       </c>
       <c r="B39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" t="s">
         <v>528</v>
-      </c>
-      <c r="D39" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -9864,16 +9861,16 @@
         <v>277</v>
       </c>
       <c r="B40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" t="s">
         <v>530</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" t="s">
         <v>531</v>
-      </c>
-      <c r="D40" t="s">
-        <v>420</v>
-      </c>
-      <c r="E40" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -9881,16 +9878,16 @@
         <v>278</v>
       </c>
       <c r="B41" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" t="s">
         <v>533</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" t="s">
         <v>534</v>
-      </c>
-      <c r="D41" t="s">
-        <v>420</v>
-      </c>
-      <c r="E41" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -9898,16 +9895,16 @@
         <v>278</v>
       </c>
       <c r="B42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C42" t="s">
         <v>536</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" t="s">
         <v>537</v>
-      </c>
-      <c r="D42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -9915,16 +9912,16 @@
         <v>278</v>
       </c>
       <c r="B43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" t="s">
         <v>539</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" t="s">
         <v>540</v>
-      </c>
-      <c r="D43" t="s">
-        <v>420</v>
-      </c>
-      <c r="E43" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -9932,16 +9929,16 @@
         <v>278</v>
       </c>
       <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
         <v>542</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E44" t="s">
         <v>543</v>
-      </c>
-      <c r="D44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E44" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -9949,16 +9946,16 @@
         <v>278</v>
       </c>
       <c r="B45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C45" t="s">
         <v>545</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" t="s">
         <v>546</v>
-      </c>
-      <c r="D45" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -9966,16 +9963,16 @@
         <v>278</v>
       </c>
       <c r="B46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" t="s">
         <v>548</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" t="s">
         <v>549</v>
-      </c>
-      <c r="D46" t="s">
-        <v>420</v>
-      </c>
-      <c r="E46" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -9983,16 +9980,16 @@
         <v>278</v>
       </c>
       <c r="B47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" t="s">
         <v>552</v>
-      </c>
-      <c r="D47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E47" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -10000,16 +9997,16 @@
         <v>278</v>
       </c>
       <c r="B48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" t="s">
         <v>554</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" t="s">
         <v>555</v>
-      </c>
-      <c r="D48" t="s">
-        <v>420</v>
-      </c>
-      <c r="E48" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -10017,16 +10014,16 @@
         <v>278</v>
       </c>
       <c r="B49" t="s">
+        <v>556</v>
+      </c>
+      <c r="C49" t="s">
         <v>557</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" t="s">
         <v>558</v>
-      </c>
-      <c r="D49" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -10034,16 +10031,16 @@
         <v>278</v>
       </c>
       <c r="B50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C50" t="s">
         <v>560</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" t="s">
         <v>561</v>
-      </c>
-      <c r="D50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E50" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -10051,16 +10048,16 @@
         <v>278</v>
       </c>
       <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
         <v>563</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>419</v>
+      </c>
+      <c r="E51" t="s">
         <v>564</v>
-      </c>
-      <c r="D51" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -10068,16 +10065,16 @@
         <v>278</v>
       </c>
       <c r="B52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" t="s">
         <v>566</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" t="s">
         <v>567</v>
-      </c>
-      <c r="D52" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -10085,16 +10082,16 @@
         <v>279</v>
       </c>
       <c r="B53" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" t="s">
         <v>569</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" t="s">
         <v>570</v>
-      </c>
-      <c r="D53" t="s">
-        <v>420</v>
-      </c>
-      <c r="E53" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -10102,16 +10099,16 @@
         <v>279</v>
       </c>
       <c r="B54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" t="s">
         <v>572</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" t="s">
         <v>573</v>
-      </c>
-      <c r="D54" t="s">
-        <v>420</v>
-      </c>
-      <c r="E54" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -10119,16 +10116,16 @@
         <v>279</v>
       </c>
       <c r="B55" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" t="s">
         <v>575</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>419</v>
+      </c>
+      <c r="E55" t="s">
         <v>576</v>
-      </c>
-      <c r="D55" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -10136,16 +10133,16 @@
         <v>279</v>
       </c>
       <c r="B56" t="s">
+        <v>577</v>
+      </c>
+      <c r="C56" t="s">
         <v>578</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>419</v>
+      </c>
+      <c r="E56" t="s">
         <v>579</v>
-      </c>
-      <c r="D56" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -10153,16 +10150,16 @@
         <v>279</v>
       </c>
       <c r="B57" t="s">
+        <v>580</v>
+      </c>
+      <c r="C57" t="s">
         <v>581</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" t="s">
         <v>582</v>
-      </c>
-      <c r="D57" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -10170,16 +10167,16 @@
         <v>279</v>
       </c>
       <c r="B58" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" t="s">
         <v>584</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>419</v>
+      </c>
+      <c r="E58" t="s">
         <v>585</v>
-      </c>
-      <c r="D58" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -10187,16 +10184,16 @@
         <v>279</v>
       </c>
       <c r="B59" t="s">
+        <v>586</v>
+      </c>
+      <c r="C59" t="s">
         <v>587</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>419</v>
+      </c>
+      <c r="E59" t="s">
         <v>588</v>
-      </c>
-      <c r="D59" t="s">
-        <v>420</v>
-      </c>
-      <c r="E59" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -10204,16 +10201,16 @@
         <v>279</v>
       </c>
       <c r="B60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C60" t="s">
         <v>590</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60" t="s">
         <v>591</v>
-      </c>
-      <c r="D60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E60" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -10221,16 +10218,16 @@
         <v>279</v>
       </c>
       <c r="B61" t="s">
+        <v>592</v>
+      </c>
+      <c r="C61" t="s">
         <v>593</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" t="s">
         <v>594</v>
-      </c>
-      <c r="D61" t="s">
-        <v>420</v>
-      </c>
-      <c r="E61" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -10238,16 +10235,16 @@
         <v>279</v>
       </c>
       <c r="B62" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" t="s">
         <v>596</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E62" t="s">
         <v>597</v>
-      </c>
-      <c r="D62" t="s">
-        <v>420</v>
-      </c>
-      <c r="E62" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -10255,16 +10252,16 @@
         <v>279</v>
       </c>
       <c r="B63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" t="s">
         <v>599</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" t="s">
         <v>600</v>
-      </c>
-      <c r="D63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E63" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -10272,16 +10269,16 @@
         <v>279</v>
       </c>
       <c r="B64" t="s">
+        <v>601</v>
+      </c>
+      <c r="C64" t="s">
         <v>602</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" t="s">
         <v>603</v>
-      </c>
-      <c r="D64" t="s">
-        <v>420</v>
-      </c>
-      <c r="E64" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -10289,16 +10286,16 @@
         <v>279</v>
       </c>
       <c r="B65" t="s">
+        <v>604</v>
+      </c>
+      <c r="C65" t="s">
         <v>605</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>419</v>
+      </c>
+      <c r="E65" t="s">
         <v>606</v>
-      </c>
-      <c r="D65" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -10306,16 +10303,16 @@
         <v>280</v>
       </c>
       <c r="B66" t="s">
+        <v>607</v>
+      </c>
+      <c r="C66" t="s">
         <v>608</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" t="s">
         <v>609</v>
-      </c>
-      <c r="D66" t="s">
-        <v>420</v>
-      </c>
-      <c r="E66" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -10323,16 +10320,16 @@
         <v>280</v>
       </c>
       <c r="B67" t="s">
+        <v>610</v>
+      </c>
+      <c r="C67" t="s">
         <v>611</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" t="s">
         <v>612</v>
-      </c>
-      <c r="D67" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10340,16 +10337,16 @@
         <v>280</v>
       </c>
       <c r="B68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C68" t="s">
         <v>614</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" t="s">
         <v>615</v>
-      </c>
-      <c r="D68" t="s">
-        <v>420</v>
-      </c>
-      <c r="E68" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -10357,16 +10354,16 @@
         <v>280</v>
       </c>
       <c r="B69" t="s">
+        <v>616</v>
+      </c>
+      <c r="C69" t="s">
         <v>617</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" t="s">
         <v>618</v>
-      </c>
-      <c r="D69" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -10374,16 +10371,16 @@
         <v>280</v>
       </c>
       <c r="B70" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70" t="s">
         <v>620</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" t="s">
         <v>621</v>
-      </c>
-      <c r="D70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -10391,16 +10388,16 @@
         <v>280</v>
       </c>
       <c r="B71" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" t="s">
         <v>623</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" t="s">
         <v>624</v>
-      </c>
-      <c r="D71" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -10408,16 +10405,16 @@
         <v>280</v>
       </c>
       <c r="B72" t="s">
+        <v>625</v>
+      </c>
+      <c r="C72" t="s">
         <v>626</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" t="s">
         <v>627</v>
-      </c>
-      <c r="D72" t="s">
-        <v>420</v>
-      </c>
-      <c r="E72" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10425,16 +10422,16 @@
         <v>280</v>
       </c>
       <c r="B73" t="s">
+        <v>628</v>
+      </c>
+      <c r="C73" t="s">
         <v>629</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" t="s">
         <v>630</v>
-      </c>
-      <c r="D73" t="s">
-        <v>420</v>
-      </c>
-      <c r="E73" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -10442,16 +10439,16 @@
         <v>280</v>
       </c>
       <c r="B74" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" t="s">
         <v>632</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" t="s">
         <v>633</v>
-      </c>
-      <c r="D74" t="s">
-        <v>420</v>
-      </c>
-      <c r="E74" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -10459,16 +10456,16 @@
         <v>280</v>
       </c>
       <c r="B75" t="s">
+        <v>634</v>
+      </c>
+      <c r="C75" t="s">
         <v>635</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>419</v>
+      </c>
+      <c r="E75" t="s">
         <v>636</v>
-      </c>
-      <c r="D75" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -10476,16 +10473,16 @@
         <v>280</v>
       </c>
       <c r="B76" t="s">
+        <v>637</v>
+      </c>
+      <c r="C76" t="s">
         <v>638</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>419</v>
+      </c>
+      <c r="E76" t="s">
         <v>639</v>
-      </c>
-      <c r="D76" t="s">
-        <v>420</v>
-      </c>
-      <c r="E76" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -10493,16 +10490,16 @@
         <v>280</v>
       </c>
       <c r="B77" t="s">
+        <v>640</v>
+      </c>
+      <c r="C77" t="s">
         <v>641</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" t="s">
         <v>642</v>
-      </c>
-      <c r="D77" t="s">
-        <v>420</v>
-      </c>
-      <c r="E77" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -10510,16 +10507,16 @@
         <v>281</v>
       </c>
       <c r="B78" t="s">
+        <v>643</v>
+      </c>
+      <c r="C78" t="s">
         <v>644</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>419</v>
+      </c>
+      <c r="E78" t="s">
         <v>645</v>
-      </c>
-      <c r="D78" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -10527,16 +10524,16 @@
         <v>281</v>
       </c>
       <c r="B79" t="s">
+        <v>646</v>
+      </c>
+      <c r="C79" t="s">
         <v>647</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" t="s">
         <v>648</v>
-      </c>
-      <c r="D79" t="s">
-        <v>420</v>
-      </c>
-      <c r="E79" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -10544,16 +10541,16 @@
         <v>281</v>
       </c>
       <c r="B80" t="s">
+        <v>649</v>
+      </c>
+      <c r="C80" t="s">
         <v>650</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" t="s">
         <v>651</v>
-      </c>
-      <c r="D80" t="s">
-        <v>420</v>
-      </c>
-      <c r="E80" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10561,16 +10558,16 @@
         <v>281</v>
       </c>
       <c r="B81" t="s">
+        <v>652</v>
+      </c>
+      <c r="C81" t="s">
         <v>653</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" t="s">
         <v>654</v>
-      </c>
-      <c r="D81" t="s">
-        <v>420</v>
-      </c>
-      <c r="E81" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -10578,16 +10575,16 @@
         <v>281</v>
       </c>
       <c r="B82" t="s">
+        <v>655</v>
+      </c>
+      <c r="C82" t="s">
         <v>656</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" t="s">
         <v>657</v>
-      </c>
-      <c r="D82" t="s">
-        <v>420</v>
-      </c>
-      <c r="E82" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10595,16 +10592,16 @@
         <v>281</v>
       </c>
       <c r="B83" t="s">
+        <v>658</v>
+      </c>
+      <c r="C83" t="s">
         <v>659</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" t="s">
         <v>660</v>
-      </c>
-      <c r="D83" t="s">
-        <v>420</v>
-      </c>
-      <c r="E83" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -10612,16 +10609,16 @@
         <v>281</v>
       </c>
       <c r="B84" t="s">
+        <v>661</v>
+      </c>
+      <c r="C84" t="s">
         <v>662</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>419</v>
+      </c>
+      <c r="E84" t="s">
         <v>663</v>
-      </c>
-      <c r="D84" t="s">
-        <v>420</v>
-      </c>
-      <c r="E84" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -10629,16 +10626,16 @@
         <v>281</v>
       </c>
       <c r="B85" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" t="s">
         <v>665</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" t="s">
         <v>666</v>
-      </c>
-      <c r="D85" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -10646,16 +10643,16 @@
         <v>281</v>
       </c>
       <c r="B86" t="s">
+        <v>667</v>
+      </c>
+      <c r="C86" t="s">
         <v>668</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" t="s">
         <v>669</v>
-      </c>
-      <c r="D86" t="s">
-        <v>420</v>
-      </c>
-      <c r="E86" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -10663,16 +10660,16 @@
         <v>281</v>
       </c>
       <c r="B87" t="s">
+        <v>670</v>
+      </c>
+      <c r="C87" t="s">
         <v>671</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
         <v>672</v>
-      </c>
-      <c r="D87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -10680,16 +10677,16 @@
         <v>281</v>
       </c>
       <c r="B88" t="s">
+        <v>673</v>
+      </c>
+      <c r="C88" t="s">
         <v>674</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" t="s">
         <v>675</v>
-      </c>
-      <c r="D88" t="s">
-        <v>420</v>
-      </c>
-      <c r="E88" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -10697,16 +10694,16 @@
         <v>281</v>
       </c>
       <c r="B89" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" t="s">
         <v>677</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" t="s">
         <v>678</v>
-      </c>
-      <c r="D89" t="s">
-        <v>420</v>
-      </c>
-      <c r="E89" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -10714,16 +10711,16 @@
         <v>281</v>
       </c>
       <c r="B90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" t="s">
         <v>680</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" t="s">
         <v>681</v>
-      </c>
-      <c r="D90" t="s">
-        <v>420</v>
-      </c>
-      <c r="E90" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -10731,16 +10728,16 @@
         <v>282</v>
       </c>
       <c r="B91" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" t="s">
         <v>683</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" t="s">
         <v>684</v>
-      </c>
-      <c r="D91" t="s">
-        <v>420</v>
-      </c>
-      <c r="E91" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -10748,16 +10745,16 @@
         <v>282</v>
       </c>
       <c r="B92" t="s">
+        <v>685</v>
+      </c>
+      <c r="C92" t="s">
         <v>686</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>419</v>
+      </c>
+      <c r="E92" t="s">
         <v>687</v>
-      </c>
-      <c r="D92" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -10765,16 +10762,16 @@
         <v>282</v>
       </c>
       <c r="B93" t="s">
+        <v>688</v>
+      </c>
+      <c r="C93" t="s">
         <v>689</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" t="s">
         <v>690</v>
-      </c>
-      <c r="D93" t="s">
-        <v>420</v>
-      </c>
-      <c r="E93" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -10782,16 +10779,16 @@
         <v>282</v>
       </c>
       <c r="B94" t="s">
+        <v>691</v>
+      </c>
+      <c r="C94" t="s">
         <v>692</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E94" t="s">
         <v>693</v>
-      </c>
-      <c r="D94" t="s">
-        <v>420</v>
-      </c>
-      <c r="E94" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -10799,16 +10796,16 @@
         <v>282</v>
       </c>
       <c r="B95" t="s">
+        <v>694</v>
+      </c>
+      <c r="C95" t="s">
         <v>695</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>419</v>
+      </c>
+      <c r="E95" t="s">
         <v>696</v>
-      </c>
-      <c r="D95" t="s">
-        <v>420</v>
-      </c>
-      <c r="E95" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -10816,16 +10813,16 @@
         <v>282</v>
       </c>
       <c r="B96" t="s">
+        <v>697</v>
+      </c>
+      <c r="C96" t="s">
         <v>698</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" t="s">
         <v>699</v>
-      </c>
-      <c r="D96" t="s">
-        <v>420</v>
-      </c>
-      <c r="E96" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -10833,16 +10830,16 @@
         <v>282</v>
       </c>
       <c r="B97" t="s">
+        <v>700</v>
+      </c>
+      <c r="C97" t="s">
         <v>701</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
         <v>702</v>
-      </c>
-      <c r="D97" t="s">
-        <v>420</v>
-      </c>
-      <c r="E97" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -10850,16 +10847,16 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
+        <v>703</v>
+      </c>
+      <c r="C98" t="s">
         <v>704</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>419</v>
+      </c>
+      <c r="E98" t="s">
         <v>705</v>
-      </c>
-      <c r="D98" t="s">
-        <v>420</v>
-      </c>
-      <c r="E98" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -10867,16 +10864,16 @@
         <v>282</v>
       </c>
       <c r="B99" t="s">
+        <v>706</v>
+      </c>
+      <c r="C99" t="s">
         <v>707</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>419</v>
+      </c>
+      <c r="E99" t="s">
         <v>708</v>
-      </c>
-      <c r="D99" t="s">
-        <v>420</v>
-      </c>
-      <c r="E99" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -10884,16 +10881,16 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" t="s">
         <v>710</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" t="s">
         <v>711</v>
-      </c>
-      <c r="D100" t="s">
-        <v>420</v>
-      </c>
-      <c r="E100" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -10901,16 +10898,16 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C101" t="s">
         <v>713</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>419</v>
+      </c>
+      <c r="E101" t="s">
         <v>714</v>
-      </c>
-      <c r="D101" t="s">
-        <v>420</v>
-      </c>
-      <c r="E101" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -10918,16 +10915,16 @@
         <v>282</v>
       </c>
       <c r="B102" t="s">
+        <v>715</v>
+      </c>
+      <c r="C102" t="s">
         <v>716</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>419</v>
+      </c>
+      <c r="E102" t="s">
         <v>717</v>
-      </c>
-      <c r="D102" t="s">
-        <v>420</v>
-      </c>
-      <c r="E102" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -10935,16 +10932,16 @@
         <v>282</v>
       </c>
       <c r="B103" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" t="s">
         <v>719</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E103" t="s">
         <v>720</v>
-      </c>
-      <c r="D103" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -10952,16 +10949,16 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C104" t="s">
         <v>722</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
         <v>723</v>
-      </c>
-      <c r="D104" t="s">
-        <v>420</v>
-      </c>
-      <c r="E104" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -10969,16 +10966,16 @@
         <v>282</v>
       </c>
       <c r="B105" t="s">
+        <v>724</v>
+      </c>
+      <c r="C105" t="s">
         <v>725</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s">
         <v>726</v>
-      </c>
-      <c r="D105" t="s">
-        <v>420</v>
-      </c>
-      <c r="E105" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -10986,16 +10983,16 @@
         <v>282</v>
       </c>
       <c r="B106" t="s">
+        <v>727</v>
+      </c>
+      <c r="C106" t="s">
         <v>728</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" t="s">
         <v>729</v>
-      </c>
-      <c r="D106" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -11003,16 +11000,16 @@
         <v>282</v>
       </c>
       <c r="B107" t="s">
+        <v>730</v>
+      </c>
+      <c r="C107" t="s">
         <v>731</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" t="s">
         <v>732</v>
-      </c>
-      <c r="D107" t="s">
-        <v>420</v>
-      </c>
-      <c r="E107" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -11020,16 +11017,16 @@
         <v>282</v>
       </c>
       <c r="B108" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" t="s">
         <v>734</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" t="s">
         <v>735</v>
-      </c>
-      <c r="D108" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -11037,16 +11034,16 @@
         <v>282</v>
       </c>
       <c r="B109" t="s">
+        <v>736</v>
+      </c>
+      <c r="C109" t="s">
         <v>737</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" t="s">
         <v>738</v>
-      </c>
-      <c r="D109" t="s">
-        <v>420</v>
-      </c>
-      <c r="E109" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -11054,16 +11051,16 @@
         <v>283</v>
       </c>
       <c r="B110" t="s">
+        <v>739</v>
+      </c>
+      <c r="C110" t="s">
         <v>740</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>419</v>
+      </c>
+      <c r="E110" t="s">
         <v>741</v>
-      </c>
-      <c r="D110" t="s">
-        <v>420</v>
-      </c>
-      <c r="E110" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -11071,16 +11068,16 @@
         <v>283</v>
       </c>
       <c r="B111" t="s">
+        <v>742</v>
+      </c>
+      <c r="C111" t="s">
         <v>743</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" t="s">
         <v>744</v>
-      </c>
-      <c r="D111" t="s">
-        <v>420</v>
-      </c>
-      <c r="E111" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -11088,16 +11085,16 @@
         <v>283</v>
       </c>
       <c r="B112" t="s">
+        <v>745</v>
+      </c>
+      <c r="C112" t="s">
         <v>746</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+      <c r="E112" t="s">
         <v>747</v>
-      </c>
-      <c r="D112" t="s">
-        <v>420</v>
-      </c>
-      <c r="E112" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -11105,16 +11102,16 @@
         <v>283</v>
       </c>
       <c r="B113" t="s">
+        <v>748</v>
+      </c>
+      <c r="C113" t="s">
         <v>749</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+      <c r="E113" t="s">
         <v>750</v>
-      </c>
-      <c r="D113" t="s">
-        <v>420</v>
-      </c>
-      <c r="E113" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -11122,16 +11119,16 @@
         <v>283</v>
       </c>
       <c r="B114" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" t="s">
         <v>752</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>419</v>
+      </c>
+      <c r="E114" t="s">
         <v>753</v>
-      </c>
-      <c r="D114" t="s">
-        <v>420</v>
-      </c>
-      <c r="E114" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -11139,16 +11136,16 @@
         <v>283</v>
       </c>
       <c r="B115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" t="s">
         <v>755</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>419</v>
+      </c>
+      <c r="E115" t="s">
         <v>756</v>
-      </c>
-      <c r="D115" t="s">
-        <v>420</v>
-      </c>
-      <c r="E115" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -11156,16 +11153,16 @@
         <v>283</v>
       </c>
       <c r="B116" t="s">
+        <v>757</v>
+      </c>
+      <c r="C116" t="s">
         <v>758</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" t="s">
         <v>759</v>
-      </c>
-      <c r="D116" t="s">
-        <v>420</v>
-      </c>
-      <c r="E116" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -11173,16 +11170,16 @@
         <v>283</v>
       </c>
       <c r="B117" t="s">
+        <v>760</v>
+      </c>
+      <c r="C117" t="s">
         <v>761</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" t="s">
         <v>762</v>
-      </c>
-      <c r="D117" t="s">
-        <v>420</v>
-      </c>
-      <c r="E117" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -11190,16 +11187,16 @@
         <v>283</v>
       </c>
       <c r="B118" t="s">
+        <v>763</v>
+      </c>
+      <c r="C118" t="s">
         <v>764</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" t="s">
         <v>765</v>
-      </c>
-      <c r="D118" t="s">
-        <v>420</v>
-      </c>
-      <c r="E118" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -11207,16 +11204,16 @@
         <v>284</v>
       </c>
       <c r="B119" t="s">
+        <v>766</v>
+      </c>
+      <c r="C119" t="s">
         <v>767</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>419</v>
+      </c>
+      <c r="E119" t="s">
         <v>768</v>
-      </c>
-      <c r="D119" t="s">
-        <v>420</v>
-      </c>
-      <c r="E119" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -11224,16 +11221,16 @@
         <v>284</v>
       </c>
       <c r="B120" t="s">
+        <v>769</v>
+      </c>
+      <c r="C120" t="s">
         <v>770</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" t="s">
         <v>771</v>
-      </c>
-      <c r="D120" t="s">
-        <v>420</v>
-      </c>
-      <c r="E120" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -11241,16 +11238,16 @@
         <v>284</v>
       </c>
       <c r="B121" t="s">
+        <v>772</v>
+      </c>
+      <c r="C121" t="s">
         <v>773</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" t="s">
         <v>774</v>
-      </c>
-      <c r="D121" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -11258,16 +11255,16 @@
         <v>284</v>
       </c>
       <c r="B122" t="s">
+        <v>775</v>
+      </c>
+      <c r="C122" t="s">
         <v>776</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122" t="s">
         <v>777</v>
-      </c>
-      <c r="D122" t="s">
-        <v>420</v>
-      </c>
-      <c r="E122" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -11275,16 +11272,16 @@
         <v>284</v>
       </c>
       <c r="B123" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" t="s">
         <v>779</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>419</v>
+      </c>
+      <c r="E123" t="s">
         <v>780</v>
-      </c>
-      <c r="D123" t="s">
-        <v>420</v>
-      </c>
-      <c r="E123" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -11292,16 +11289,16 @@
         <v>284</v>
       </c>
       <c r="B124" t="s">
+        <v>781</v>
+      </c>
+      <c r="C124" t="s">
         <v>782</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>419</v>
+      </c>
+      <c r="E124" t="s">
         <v>783</v>
-      </c>
-      <c r="D124" t="s">
-        <v>420</v>
-      </c>
-      <c r="E124" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -11309,16 +11306,16 @@
         <v>284</v>
       </c>
       <c r="B125" t="s">
+        <v>784</v>
+      </c>
+      <c r="C125" t="s">
         <v>785</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>419</v>
+      </c>
+      <c r="E125" t="s">
         <v>786</v>
-      </c>
-      <c r="D125" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -11326,16 +11323,16 @@
         <v>284</v>
       </c>
       <c r="B126" t="s">
+        <v>787</v>
+      </c>
+      <c r="C126" t="s">
         <v>788</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
         <v>789</v>
-      </c>
-      <c r="D126" t="s">
-        <v>420</v>
-      </c>
-      <c r="E126" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -11343,16 +11340,16 @@
         <v>284</v>
       </c>
       <c r="B127" t="s">
+        <v>790</v>
+      </c>
+      <c r="C127" t="s">
         <v>791</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" t="s">
         <v>792</v>
-      </c>
-      <c r="D127" t="s">
-        <v>420</v>
-      </c>
-      <c r="E127" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -11360,16 +11357,16 @@
         <v>284</v>
       </c>
       <c r="B128" t="s">
+        <v>793</v>
+      </c>
+      <c r="C128" t="s">
         <v>794</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>419</v>
+      </c>
+      <c r="E128" t="s">
         <v>795</v>
-      </c>
-      <c r="D128" t="s">
-        <v>420</v>
-      </c>
-      <c r="E128" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -11377,16 +11374,16 @@
         <v>284</v>
       </c>
       <c r="B129" t="s">
+        <v>796</v>
+      </c>
+      <c r="C129" t="s">
         <v>797</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>419</v>
+      </c>
+      <c r="E129" t="s">
         <v>798</v>
-      </c>
-      <c r="D129" t="s">
-        <v>420</v>
-      </c>
-      <c r="E129" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -11394,16 +11391,16 @@
         <v>284</v>
       </c>
       <c r="B130" t="s">
+        <v>799</v>
+      </c>
+      <c r="C130" t="s">
         <v>800</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" t="s">
         <v>801</v>
-      </c>
-      <c r="D130" t="s">
-        <v>420</v>
-      </c>
-      <c r="E130" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -11411,16 +11408,16 @@
         <v>284</v>
       </c>
       <c r="B131" t="s">
+        <v>802</v>
+      </c>
+      <c r="C131" t="s">
         <v>803</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>419</v>
+      </c>
+      <c r="E131" t="s">
         <v>804</v>
-      </c>
-      <c r="D131" t="s">
-        <v>420</v>
-      </c>
-      <c r="E131" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -11428,16 +11425,16 @@
         <v>285</v>
       </c>
       <c r="B132" t="s">
+        <v>805</v>
+      </c>
+      <c r="C132" t="s">
         <v>806</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>419</v>
+      </c>
+      <c r="E132" t="s">
         <v>807</v>
-      </c>
-      <c r="D132" t="s">
-        <v>420</v>
-      </c>
-      <c r="E132" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -11445,16 +11442,16 @@
         <v>285</v>
       </c>
       <c r="B133" t="s">
+        <v>808</v>
+      </c>
+      <c r="C133" t="s">
         <v>809</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" t="s">
         <v>810</v>
-      </c>
-      <c r="D133" t="s">
-        <v>420</v>
-      </c>
-      <c r="E133" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -11462,16 +11459,16 @@
         <v>285</v>
       </c>
       <c r="B134" t="s">
+        <v>811</v>
+      </c>
+      <c r="C134" t="s">
         <v>812</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" t="s">
         <v>813</v>
-      </c>
-      <c r="D134" t="s">
-        <v>420</v>
-      </c>
-      <c r="E134" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -11479,16 +11476,16 @@
         <v>285</v>
       </c>
       <c r="B135" t="s">
+        <v>814</v>
+      </c>
+      <c r="C135" t="s">
         <v>815</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E135" t="s">
         <v>816</v>
-      </c>
-      <c r="D135" t="s">
-        <v>420</v>
-      </c>
-      <c r="E135" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -11496,16 +11493,16 @@
         <v>285</v>
       </c>
       <c r="B136" t="s">
+        <v>817</v>
+      </c>
+      <c r="C136" t="s">
         <v>818</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>419</v>
+      </c>
+      <c r="E136" t="s">
         <v>819</v>
-      </c>
-      <c r="D136" t="s">
-        <v>420</v>
-      </c>
-      <c r="E136" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -11513,16 +11510,16 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
+        <v>820</v>
+      </c>
+      <c r="C137" t="s">
         <v>821</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>419</v>
+      </c>
+      <c r="E137" t="s">
         <v>822</v>
-      </c>
-      <c r="D137" t="s">
-        <v>420</v>
-      </c>
-      <c r="E137" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -11530,16 +11527,16 @@
         <v>285</v>
       </c>
       <c r="B138" t="s">
+        <v>823</v>
+      </c>
+      <c r="C138" t="s">
         <v>824</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>419</v>
+      </c>
+      <c r="E138" t="s">
         <v>825</v>
-      </c>
-      <c r="D138" t="s">
-        <v>420</v>
-      </c>
-      <c r="E138" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -11547,16 +11544,16 @@
         <v>285</v>
       </c>
       <c r="B139" t="s">
+        <v>826</v>
+      </c>
+      <c r="C139" t="s">
         <v>827</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>419</v>
+      </c>
+      <c r="E139" t="s">
         <v>828</v>
-      </c>
-      <c r="D139" t="s">
-        <v>420</v>
-      </c>
-      <c r="E139" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -11564,16 +11561,16 @@
         <v>285</v>
       </c>
       <c r="B140" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" t="s">
         <v>830</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" t="s">
         <v>831</v>
-      </c>
-      <c r="D140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E140" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -11581,16 +11578,16 @@
         <v>285</v>
       </c>
       <c r="B141" t="s">
+        <v>832</v>
+      </c>
+      <c r="C141" t="s">
         <v>833</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>419</v>
+      </c>
+      <c r="E141" t="s">
         <v>834</v>
-      </c>
-      <c r="D141" t="s">
-        <v>420</v>
-      </c>
-      <c r="E141" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -11598,16 +11595,16 @@
         <v>285</v>
       </c>
       <c r="B142" t="s">
+        <v>835</v>
+      </c>
+      <c r="C142" t="s">
         <v>836</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+      <c r="E142" t="s">
         <v>837</v>
-      </c>
-      <c r="D142" t="s">
-        <v>420</v>
-      </c>
-      <c r="E142" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -11615,16 +11612,16 @@
         <v>285</v>
       </c>
       <c r="B143" t="s">
+        <v>838</v>
+      </c>
+      <c r="C143" t="s">
         <v>839</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" t="s">
         <v>840</v>
-      </c>
-      <c r="D143" t="s">
-        <v>420</v>
-      </c>
-      <c r="E143" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -11632,16 +11629,16 @@
         <v>285</v>
       </c>
       <c r="B144" t="s">
+        <v>841</v>
+      </c>
+      <c r="C144" t="s">
         <v>842</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" t="s">
         <v>843</v>
-      </c>
-      <c r="D144" t="s">
-        <v>420</v>
-      </c>
-      <c r="E144" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -11649,16 +11646,16 @@
         <v>285</v>
       </c>
       <c r="B145" t="s">
+        <v>844</v>
+      </c>
+      <c r="C145" t="s">
         <v>845</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>419</v>
+      </c>
+      <c r="E145" t="s">
         <v>846</v>
-      </c>
-      <c r="D145" t="s">
-        <v>420</v>
-      </c>
-      <c r="E145" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -11666,16 +11663,16 @@
         <v>285</v>
       </c>
       <c r="B146" t="s">
+        <v>847</v>
+      </c>
+      <c r="C146" t="s">
         <v>848</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
         <v>849</v>
-      </c>
-      <c r="D146" t="s">
-        <v>420</v>
-      </c>
-      <c r="E146" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -11683,16 +11680,16 @@
         <v>285</v>
       </c>
       <c r="B147" t="s">
+        <v>850</v>
+      </c>
+      <c r="C147" t="s">
         <v>851</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
         <v>852</v>
-      </c>
-      <c r="D147" t="s">
-        <v>420</v>
-      </c>
-      <c r="E147" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -11700,16 +11697,16 @@
         <v>285</v>
       </c>
       <c r="B148" t="s">
+        <v>853</v>
+      </c>
+      <c r="C148" t="s">
         <v>854</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" t="s">
         <v>855</v>
-      </c>
-      <c r="D148" t="s">
-        <v>420</v>
-      </c>
-      <c r="E148" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -11717,16 +11714,16 @@
         <v>285</v>
       </c>
       <c r="B149" t="s">
+        <v>856</v>
+      </c>
+      <c r="C149" t="s">
         <v>857</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>419</v>
+      </c>
+      <c r="E149" t="s">
         <v>858</v>
-      </c>
-      <c r="D149" t="s">
-        <v>420</v>
-      </c>
-      <c r="E149" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -11734,16 +11731,16 @@
         <v>285</v>
       </c>
       <c r="B150" t="s">
+        <v>859</v>
+      </c>
+      <c r="C150" t="s">
         <v>860</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" t="s">
         <v>861</v>
-      </c>
-      <c r="D150" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -11751,16 +11748,16 @@
         <v>285</v>
       </c>
       <c r="B151" t="s">
+        <v>862</v>
+      </c>
+      <c r="C151" t="s">
         <v>863</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" t="s">
         <v>864</v>
-      </c>
-      <c r="D151" t="s">
-        <v>420</v>
-      </c>
-      <c r="E151" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -11768,16 +11765,16 @@
         <v>285</v>
       </c>
       <c r="B152" t="s">
+        <v>865</v>
+      </c>
+      <c r="C152" t="s">
         <v>866</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152" t="s">
         <v>867</v>
-      </c>
-      <c r="D152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E152" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -11785,16 +11782,16 @@
         <v>285</v>
       </c>
       <c r="B153" t="s">
+        <v>868</v>
+      </c>
+      <c r="C153" t="s">
         <v>869</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" t="s">
         <v>870</v>
-      </c>
-      <c r="D153" t="s">
-        <v>420</v>
-      </c>
-      <c r="E153" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -11802,21 +11799,21 @@
         <v>285</v>
       </c>
       <c r="B154" t="s">
+        <v>871</v>
+      </c>
+      <c r="C154" t="s">
         <v>872</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E154" t="s">
         <v>873</v>
-      </c>
-      <c r="D154" t="s">
-        <v>420</v>
-      </c>
-      <c r="E154" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E155" s="60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -12683,7 +12680,7 @@
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12702,16 +12699,16 @@
   <sheetData>
     <row r="2" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="126" t="s">
+        <v>875</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>876</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="400" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C4" s="400"/>
       <c r="D4" s="400"/>
@@ -12734,7 +12731,7 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="400" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C5" s="400"/>
       <c r="D5" s="400"/>
@@ -12769,7 +12766,7 @@
         <v>305</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" s="127" t="s">
         <v>300</v>
@@ -12784,7 +12781,7 @@
         <v>305</v>
       </c>
       <c r="T7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -12792,7 +12789,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="125" t="s">
         <v>301</v>
@@ -12804,19 +12801,19 @@
         <v>306</v>
       </c>
       <c r="L8" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>879</v>
+      </c>
+      <c r="P8" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="125" t="s">
-        <v>880</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>342</v>
-      </c>
       <c r="R8" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T8" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -12824,132 +12821,132 @@
         <v>303</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N9" s="125"/>
       <c r="P9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T9" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J10" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" s="125"/>
       <c r="P10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J11" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L11" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N11" s="125"/>
       <c r="P11" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11" s="125"/>
       <c r="T11" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J12" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L12" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" s="125"/>
       <c r="P12" s="125"/>
       <c r="R12" s="125"/>
       <c r="T12" s="125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L13" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N13" s="125"/>
       <c r="P13" s="125"/>
       <c r="R13" s="125"/>
       <c r="T13" s="125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L14" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N14" s="125"/>
       <c r="P14" s="125"/>
@@ -12958,13 +12955,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J15" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L15" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N15" s="125"/>
       <c r="P15" s="125"/>
@@ -12973,10 +12970,10 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L16" s="125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N16" s="125"/>
       <c r="P16" s="125"/>
@@ -12985,10 +12982,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L17" s="125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N17" s="125"/>
       <c r="P17" s="125"/>
@@ -12996,22 +12993,22 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -13046,7 +13043,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -13058,18 +13055,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>124</v>
@@ -13101,7 +13098,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -13115,13 +13112,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F6" t="s">
         <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13135,13 +13132,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13155,13 +13152,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F8" t="s">
         <v>299</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13175,13 +13172,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13195,13 +13192,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13215,13 +13212,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -13235,13 +13232,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -13255,13 +13252,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F13" t="s">
         <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -13275,13 +13272,13 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F14" t="s">
         <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13295,13 +13292,13 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F15" t="s">
         <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -13315,13 +13312,13 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -13335,13 +13332,13 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -13355,13 +13352,13 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F18" t="s">
         <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -13375,13 +13372,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F19" t="s">
         <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -13395,13 +13392,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F20" t="s">
         <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -13415,13 +13412,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F21" t="s">
         <v>299</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13435,13 +13432,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13455,13 +13452,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13475,13 +13472,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13495,13 +13492,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13515,13 +13512,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13535,13 +13532,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13555,13 +13552,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13575,13 +13572,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13595,13 +13592,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13615,13 +13612,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13635,13 +13632,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F32" t="s">
         <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -13655,13 +13652,13 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -13675,13 +13672,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -13695,13 +13692,13 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F35" t="s">
         <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -13715,13 +13712,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F36" t="s">
         <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -13735,13 +13732,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F37" t="s">
         <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -13755,13 +13752,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -13775,13 +13772,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F39" t="s">
         <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -13795,13 +13792,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F40" t="s">
         <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -13815,13 +13812,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F41" t="s">
         <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -13835,13 +13832,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F42" t="s">
         <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -13855,13 +13852,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -13869,14 +13866,14 @@
         <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F44" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -13892,7 +13889,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J45" s="111"/>
     </row>
@@ -13901,13 +13898,13 @@
         <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J46" s="111"/>
     </row>
@@ -13916,13 +13913,13 @@
         <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J47" s="111"/>
     </row>
@@ -13931,13 +13928,13 @@
         <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J48" s="111"/>
     </row>
@@ -13946,13 +13943,13 @@
         <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F49" t="s">
         <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -13960,13 +13957,13 @@
         <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F50" t="s">
         <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
@@ -13974,13 +13971,13 @@
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.35">
@@ -13988,13 +13985,13 @@
         <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.35">
@@ -14002,13 +13999,13 @@
         <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.35">
@@ -14016,13 +14013,13 @@
         <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F54" t="s">
         <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.35">
@@ -14030,13 +14027,13 @@
         <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.35">
@@ -14044,13 +14041,13 @@
         <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F56" t="s">
         <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.35">
@@ -14058,13 +14055,13 @@
         <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F57" t="s">
         <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.35">
@@ -14072,13 +14069,13 @@
         <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F58" t="s">
         <v>139</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.35">
@@ -14086,13 +14083,13 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F59" t="s">
         <v>139</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.35">
@@ -14100,13 +14097,13 @@
         <v>278</v>
       </c>
       <c r="E60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F60" t="s">
         <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.35">
@@ -14114,13 +14111,13 @@
         <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F61" t="s">
         <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.35">
@@ -14128,13 +14125,13 @@
         <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F62" t="s">
         <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.35">
@@ -14150,7 +14147,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.35">
@@ -14158,13 +14155,13 @@
         <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F64" t="s">
         <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.35">
@@ -14172,13 +14169,13 @@
         <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F65" t="s">
         <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.35">
@@ -14186,13 +14183,13 @@
         <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F66" t="s">
         <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.35">
@@ -14200,13 +14197,13 @@
         <v>279</v>
       </c>
       <c r="E67" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F67" t="s">
         <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.35">
@@ -14214,13 +14211,13 @@
         <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.35">
@@ -14228,13 +14225,13 @@
         <v>279</v>
       </c>
       <c r="E69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F69" t="s">
         <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.35">
@@ -14242,13 +14239,13 @@
         <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F70" t="s">
         <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.35">
@@ -14256,13 +14253,13 @@
         <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F71" t="s">
         <v>139</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.35">
@@ -14270,13 +14267,13 @@
         <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F72" t="s">
         <v>139</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.35">
@@ -14292,7 +14289,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.35">
@@ -14300,13 +14297,13 @@
         <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F74" t="s">
         <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.35">
@@ -14314,13 +14311,13 @@
         <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F75" t="s">
         <v>139</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.35">
@@ -14328,13 +14325,13 @@
         <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F76" t="s">
         <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.35">
@@ -14342,13 +14339,13 @@
         <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F77" t="s">
         <v>139</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.35">
@@ -14356,13 +14353,13 @@
         <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.35">
@@ -14370,13 +14367,13 @@
         <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.35">
@@ -14384,13 +14381,13 @@
         <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.35">
@@ -14398,13 +14395,13 @@
         <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F81" t="s">
         <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.35">
@@ -14412,13 +14409,13 @@
         <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F82" t="s">
         <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
@@ -14426,13 +14423,13 @@
         <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F83" t="s">
         <v>139</v>
       </c>
       <c r="G83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.35">
@@ -14440,13 +14437,13 @@
         <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F84" t="s">
         <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
@@ -14454,13 +14451,13 @@
         <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F85" t="s">
         <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.35">
@@ -14468,13 +14465,13 @@
         <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.35">
@@ -14490,7 +14487,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.35">
@@ -14498,13 +14495,13 @@
         <v>281</v>
       </c>
       <c r="E88" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F88" t="s">
         <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.35">
@@ -14512,13 +14509,13 @@
         <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F89" t="s">
         <v>299</v>
       </c>
       <c r="G89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.35">
@@ -14526,13 +14523,13 @@
         <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F90" t="s">
         <v>299</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.35">
@@ -14540,13 +14537,13 @@
         <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.35">
@@ -14554,13 +14551,13 @@
         <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F92" t="s">
         <v>299</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.35">
@@ -14568,13 +14565,13 @@
         <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F93" t="s">
         <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.35">
@@ -14582,13 +14579,13 @@
         <v>281</v>
       </c>
       <c r="E94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F94" t="s">
         <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.35">
@@ -14596,13 +14593,13 @@
         <v>281</v>
       </c>
       <c r="E95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F95" t="s">
         <v>299</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.35">
@@ -14610,13 +14607,13 @@
         <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F96" t="s">
         <v>139</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.35">
@@ -14624,13 +14621,13 @@
         <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F97" t="s">
         <v>299</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.35">
@@ -14638,13 +14635,13 @@
         <v>281</v>
       </c>
       <c r="E98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F98" t="s">
         <v>299</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.35">
@@ -14652,13 +14649,13 @@
         <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F99" t="s">
         <v>299</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.35">
@@ -14666,13 +14663,13 @@
         <v>281</v>
       </c>
       <c r="E100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F100" t="s">
         <v>139</v>
       </c>
       <c r="G100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.35">
@@ -14680,13 +14677,13 @@
         <v>281</v>
       </c>
       <c r="E101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F101" t="s">
         <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.35">
@@ -14694,13 +14691,13 @@
         <v>281</v>
       </c>
       <c r="E102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F102" t="s">
         <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.35">
@@ -14708,13 +14705,13 @@
         <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F103" t="s">
         <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.35">
@@ -14722,13 +14719,13 @@
         <v>281</v>
       </c>
       <c r="E104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F104" t="s">
         <v>299</v>
       </c>
       <c r="G104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.35">
@@ -14736,13 +14733,13 @@
         <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F105" t="s">
         <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.35">
@@ -14750,13 +14747,13 @@
         <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F106" t="s">
         <v>299</v>
       </c>
       <c r="G106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.35">
@@ -14772,7 +14769,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.35">
@@ -14780,13 +14777,13 @@
         <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F108" t="s">
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.35">
@@ -14794,13 +14791,13 @@
         <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F109" t="s">
         <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.35">
@@ -14808,13 +14805,13 @@
         <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F110" t="s">
         <v>139</v>
       </c>
       <c r="G110" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.35">
@@ -14822,13 +14819,13 @@
         <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F111" t="s">
         <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.35">
@@ -14836,13 +14833,13 @@
         <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F112" t="s">
         <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.35">
@@ -14850,13 +14847,13 @@
         <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F113" t="s">
         <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.35">
@@ -14864,13 +14861,13 @@
         <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.35">
@@ -14878,13 +14875,13 @@
         <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F115" t="s">
         <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.35">
@@ -14892,13 +14889,13 @@
         <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F116" t="s">
         <v>139</v>
       </c>
       <c r="G116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.35">
@@ -14906,13 +14903,13 @@
         <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F117" t="s">
         <v>139</v>
       </c>
       <c r="G117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.35">
@@ -14920,13 +14917,13 @@
         <v>282</v>
       </c>
       <c r="E118" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F118" t="s">
         <v>299</v>
       </c>
       <c r="G118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.35">
@@ -14934,13 +14931,13 @@
         <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F119" t="s">
         <v>139</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.35">
@@ -14948,13 +14945,13 @@
         <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F120" t="s">
         <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.35">
@@ -14962,13 +14959,13 @@
         <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F121" t="s">
         <v>299</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.35">
@@ -14976,13 +14973,13 @@
         <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F122" t="s">
         <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.35">
@@ -14990,13 +14987,13 @@
         <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F123" t="s">
         <v>299</v>
       </c>
       <c r="G123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.35">
@@ -15004,13 +15001,13 @@
         <v>282</v>
       </c>
       <c r="E124" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F124" t="s">
         <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.35">
@@ -15018,13 +15015,13 @@
         <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F125" t="s">
         <v>139</v>
       </c>
       <c r="G125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.35">
@@ -15032,13 +15029,13 @@
         <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F126" t="s">
         <v>139</v>
       </c>
       <c r="G126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.35">
@@ -15046,13 +15043,13 @@
         <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F127" t="s">
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.35">
@@ -15060,13 +15057,13 @@
         <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F128" t="s">
         <v>139</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.35">
@@ -15074,13 +15071,13 @@
         <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F129" t="s">
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.35">
@@ -15088,13 +15085,13 @@
         <v>282</v>
       </c>
       <c r="E130" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F130" t="s">
         <v>139</v>
       </c>
       <c r="G130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.35">
@@ -15102,13 +15099,13 @@
         <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.35">
@@ -15116,13 +15113,13 @@
         <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.35">
@@ -15130,13 +15127,13 @@
         <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F133" t="s">
         <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.35">
@@ -15152,7 +15149,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.35">
@@ -15160,13 +15157,13 @@
         <v>283</v>
       </c>
       <c r="E135" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F135" t="s">
         <v>139</v>
       </c>
       <c r="G135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.35">
@@ -15174,13 +15171,13 @@
         <v>283</v>
       </c>
       <c r="E136" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F136" t="s">
         <v>139</v>
       </c>
       <c r="G136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.35">
@@ -15188,13 +15185,13 @@
         <v>283</v>
       </c>
       <c r="E137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F137" t="s">
         <v>139</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.35">
@@ -15202,13 +15199,13 @@
         <v>283</v>
       </c>
       <c r="E138" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F138" t="s">
         <v>139</v>
       </c>
       <c r="G138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.35">
@@ -15216,13 +15213,13 @@
         <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F139" t="s">
         <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.35">
@@ -15230,13 +15227,13 @@
         <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F140" t="s">
         <v>139</v>
       </c>
       <c r="G140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.35">
@@ -15244,13 +15241,13 @@
         <v>283</v>
       </c>
       <c r="E141" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F141" t="s">
         <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.35">
@@ -15258,13 +15255,13 @@
         <v>283</v>
       </c>
       <c r="E142" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F142" t="s">
         <v>139</v>
       </c>
       <c r="G142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.35">
@@ -15272,13 +15269,13 @@
         <v>283</v>
       </c>
       <c r="E143" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F143" t="s">
         <v>299</v>
       </c>
       <c r="G143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.35">
@@ -15286,13 +15283,13 @@
         <v>283</v>
       </c>
       <c r="E144" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F144" t="s">
         <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.35">
@@ -15300,13 +15297,13 @@
         <v>283</v>
       </c>
       <c r="E145" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F145" t="s">
         <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.35">
@@ -15314,13 +15311,13 @@
         <v>283</v>
       </c>
       <c r="E146" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F146" t="s">
         <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.35">
@@ -15328,14 +15325,14 @@
         <v>284</v>
       </c>
       <c r="E147" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F147" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.35">
@@ -15351,7 +15348,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.35">
@@ -15359,13 +15356,13 @@
         <v>285</v>
       </c>
       <c r="E149" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F149" t="s">
         <v>299</v>
       </c>
       <c r="G149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.35">
@@ -15373,13 +15370,13 @@
         <v>285</v>
       </c>
       <c r="E150" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F150" t="s">
         <v>139</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.35">
@@ -15387,13 +15384,13 @@
         <v>285</v>
       </c>
       <c r="E151" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F151" t="s">
         <v>139</v>
       </c>
       <c r="G151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.35">
@@ -15401,13 +15398,13 @@
         <v>285</v>
       </c>
       <c r="E152" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F152" t="s">
         <v>139</v>
       </c>
       <c r="G152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.35">
@@ -15415,13 +15412,13 @@
         <v>285</v>
       </c>
       <c r="E153" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G153" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.35">
@@ -15429,13 +15426,13 @@
         <v>285</v>
       </c>
       <c r="E154" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F154" t="s">
         <v>139</v>
       </c>
       <c r="G154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.35">
@@ -15443,13 +15440,13 @@
         <v>285</v>
       </c>
       <c r="E155" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F155" t="s">
         <v>139</v>
       </c>
       <c r="G155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.35">
@@ -15457,13 +15454,13 @@
         <v>285</v>
       </c>
       <c r="E156" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F156" t="s">
         <v>139</v>
       </c>
       <c r="G156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.35">
@@ -15471,13 +15468,13 @@
         <v>285</v>
       </c>
       <c r="E157" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F157" t="s">
         <v>299</v>
       </c>
       <c r="G157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.35">
@@ -15485,18 +15482,18 @@
         <v>285</v>
       </c>
       <c r="E158" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F158" t="s">
         <v>139</v>
       </c>
       <c r="G158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G159" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -15538,7 +15535,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -15550,18 +15547,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -15593,7 +15590,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -15607,13 +15604,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -15627,13 +15624,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -15647,13 +15644,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" t="s">
         <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -15667,13 +15664,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15687,13 +15684,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15707,13 +15704,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -15727,13 +15724,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -15747,13 +15744,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -15761,14 +15758,14 @@
         <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F14" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -15784,7 +15781,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -15792,13 +15789,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
@@ -15806,13 +15803,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
@@ -15820,14 +15817,14 @@
         <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.35">
@@ -15843,7 +15840,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.35">
@@ -15851,13 +15848,13 @@
         <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.35">
@@ -15865,13 +15862,13 @@
         <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F21" t="s">
         <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.35">
@@ -15879,13 +15876,13 @@
         <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.35">
@@ -15893,13 +15890,13 @@
         <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.35">
@@ -15907,13 +15904,13 @@
         <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.35">
@@ -15921,13 +15918,13 @@
         <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.35">
@@ -15935,13 +15932,13 @@
         <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F26" t="s">
         <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.35">
@@ -15949,13 +15946,13 @@
         <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.35">
@@ -15963,13 +15960,13 @@
         <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F28" t="s">
         <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.35">
@@ -15977,13 +15974,13 @@
         <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.35">
@@ -15991,13 +15988,13 @@
         <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.35">
@@ -16005,13 +16002,13 @@
         <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.35">
@@ -16027,7 +16024,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.35">
@@ -16035,13 +16032,13 @@
         <v>281</v>
       </c>
       <c r="E33" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.35">
@@ -16049,13 +16046,13 @@
         <v>281</v>
       </c>
       <c r="E34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F34" t="s">
         <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.35">
@@ -16063,13 +16060,13 @@
         <v>281</v>
       </c>
       <c r="E35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.35">
@@ -16077,13 +16074,13 @@
         <v>281</v>
       </c>
       <c r="E36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.35">
@@ -16099,7 +16096,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.35">
@@ -16107,13 +16104,13 @@
         <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.35">
@@ -16121,13 +16118,13 @@
         <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.35">
@@ -16135,13 +16132,13 @@
         <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F40" t="s">
         <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.35">
@@ -16149,13 +16146,13 @@
         <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.35">
@@ -16163,13 +16160,13 @@
         <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.35">
@@ -16177,13 +16174,13 @@
         <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F43" t="s">
         <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.35">
@@ -16191,13 +16188,13 @@
         <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.35">
@@ -16205,13 +16202,13 @@
         <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.35">
@@ -16227,7 +16224,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.35">
@@ -16235,13 +16232,13 @@
         <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.35">
@@ -16249,13 +16246,13 @@
         <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.35">
@@ -16263,14 +16260,14 @@
         <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -16278,19 +16275,19 @@
         <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F50" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G51" s="60" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -16993,7 +16990,7 @@
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="29" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17077,7 +17074,7 @@
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="181" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17651,7 +17648,7 @@
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="218" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="219"/>
       <c r="D6" s="219"/>
@@ -17747,7 +17744,7 @@
         <v>289</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17761,7 +17758,7 @@
         <v>289</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17775,7 +17772,7 @@
         <v>292</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17789,7 +17786,7 @@
         <v>289</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17803,7 +17800,7 @@
         <v>291</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17817,7 +17814,7 @@
         <v>292</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17831,7 +17828,7 @@
         <v>289</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17845,7 +17842,7 @@
         <v>289</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17859,7 +17856,7 @@
         <v>290</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -18150,7 +18147,7 @@
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="218" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C55" s="219"/>
       <c r="D55" s="219"/>
@@ -18189,7 +18186,7 @@
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="218" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C61" s="219"/>
       <c r="D61" s="219"/>
@@ -18328,7 +18325,7 @@
         <v>PF-BOL-001: Wellsprings Innovation Hub</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -18336,7 +18333,7 @@
         <v>PF-BOL-002: Bolton Market Upgrades</v>
       </c>
       <c r="C7" s="206" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -18344,7 +18341,7 @@
         <v>PF-BOL-003: Bolton Library &amp; Museum Upgrade</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -18352,7 +18349,7 @@
         <v>PF-BOL-004: Public Realm Improvements</v>
       </c>
       <c r="C9" s="206" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -18360,7 +18357,7 @@
         <v>PF-BOL-005: Accelerated Funding £1 million Public Realm Improvements</v>
       </c>
       <c r="C10" s="206" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -18368,7 +18365,7 @@
         <v>PF-BOL-006: Farnworth Market Precinct</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -18376,7 +18373,7 @@
         <v>PF-BOL-007: Farnworth Leisure Centre Expansion</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -18384,7 +18381,7 @@
         <v>PF-BOL-008: Streets for All - Farnworth</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -18392,7 +18389,7 @@
         <v>PF-BOL-009: Bolton College of Medical Science</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -18531,8 +18528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D5B1B-461C-4DE2-9E08-BF956850FFFF}">
   <dimension ref="A1:BH154"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19737,7 +19734,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="180" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19838,7 +19835,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="73" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -21746,10 +21743,10 @@
     <row r="45" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="142" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D45" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45, Filtered_Bespoke_Outputs, 2, FALSE), "")</f>
@@ -29546,8 +29543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30423,7 +30420,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$82:$B$104, 2, FALSE), "")</f>
@@ -37581,8 +37578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="K76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView topLeftCell="J66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -38622,7 +38619,7 @@
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="385"/>
       <c r="B31" s="326" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C31" s="222"/>
       <c r="D31" s="222"/>
@@ -39859,7 +39856,7 @@
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
       <c r="B57" s="326" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C57" s="222"/>
       <c r="D57" s="222"/>
@@ -40077,7 +40074,7 @@
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
       <c r="B63" s="326" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C63" s="222"/>
       <c r="D63" s="222"/>
@@ -40350,7 +40347,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="310" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D70" s="310"/>
       <c r="E70" s="311" t="s">
@@ -40358,7 +40355,7 @@
       </c>
       <c r="F70" s="311"/>
       <c r="G70" s="310" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H70" s="310"/>
       <c r="I70" s="311" t="s">
@@ -40369,15 +40366,15 @@
         <v>20</v>
       </c>
       <c r="L70" s="318" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M70" s="318"/>
       <c r="N70" s="321" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O70" s="321"/>
       <c r="P70" s="310" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q70" s="310"/>
       <c r="R70" s="311" t="s">
@@ -41607,6 +41604,8 @@
     <mergeCell ref="N81:O81"/>
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
     <mergeCell ref="R79:S79"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:F70"/>
@@ -41631,8 +41630,6 @@
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I79:J79"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="P74:Q74"/>
     <mergeCell ref="P75:Q75"/>
@@ -41642,7 +41639,6 @@
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I80:J80"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="C73:D73"/>
@@ -41661,6 +41657,7 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41979,32 +41976,32 @@
     </row>
     <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G9" s="80">
         <f>IFERROR(VALUE(LEFT(E9,1))*VALUE(LEFT(F9,1)),"N/A")</f>
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="139">
         <f>IFERROR(VALUE(LEFT(I9,1))*VALUE(LEFT(J9,1)),"N/A")</f>
@@ -42013,32 +42010,32 @@
     </row>
     <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="76" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G10" s="80">
         <f t="shared" ref="G10:G13" si="0">IFERROR(VALUE(LEFT(E10,1))*VALUE(LEFT(F10,1)),"N/A")</f>
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K10" s="139">
         <f t="shared" ref="K10:K13" si="1">IFERROR(VALUE(LEFT(I10,1))*VALUE(LEFT(J10,1)),"N/A")</f>
@@ -42047,32 +42044,32 @@
     </row>
     <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K11" s="139">
         <f t="shared" si="1"/>
@@ -42081,32 +42078,32 @@
     </row>
     <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1106</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K12" s="139">
         <f t="shared" si="1"/>
@@ -42115,32 +42112,32 @@
     </row>
     <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="78" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>1108</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>1109</v>
-      </c>
       <c r="E13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K13" s="140">
         <f t="shared" si="1"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{0F09E1AE-376D-4ED6-9E64-F8E93A849F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB57F1D5-B1E6-4912-A230-F2B27DFA2D13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D7DF2-BFEA-492C-A531-C066A7E1FD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="3" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1113">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3749,6 +3749,9 @@
   </si>
   <si>
     <t>Head of Operations</t>
+  </si>
+  <si>
+    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
 </sst>
 </file>
@@ -6111,12 +6114,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6135,6 +6132,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6144,20 +6168,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6189,29 +6210,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6234,18 +6279,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6254,18 +6287,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6276,12 +6297,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6289,6 +6304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6312,41 +6333,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6378,83 +6402,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6466,105 +6429,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6573,6 +6437,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6637,6 +6504,142 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6679,14 +6682,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <font>
         <color theme="1" tint="0.249977111117893"/>
@@ -7079,13 +7082,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7643,10 +7639,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7898,8 +7894,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8190,7 +8186,7 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8312,7 +8308,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8579,7 +8575,7 @@
         <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8590,7 +8586,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8601,7 +8597,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8722,7 +8718,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8766,7 +8762,7 @@
         <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8799,7 +8795,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16324,10 +16320,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16337,16 +16333,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16358,138 +16354,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16536,6 +16532,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16546,16 +16552,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17611,12 +17607,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17631,34 +17627,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="225" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17668,37 +17664,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18130,34 +18126,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18169,34 +18165,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18221,14 +18217,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18238,23 +18226,31 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$B15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D50">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Amber"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"Select a rating"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18505,12 +18501,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:C40 B6:B14">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>$B6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
+  <conditionalFormatting sqref="B6:C40">
     <cfRule type="expression" dxfId="41" priority="1">
       <formula>$B6=""</formula>
     </cfRule>
@@ -18623,14 +18614,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18749,14 +18740,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18813,14 +18804,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18877,14 +18868,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18944,13 +18935,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19010,13 +19001,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19076,13 +19067,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19142,13 +19133,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19208,13 +19199,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19274,13 +19265,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19484,60 +19475,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19562,13 +19553,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19583,7 +19574,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19598,13 +19589,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19613,19 +19604,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19650,13 +19641,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19669,7 +19660,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19682,9 +19673,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19693,19 +19684,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21496,37 +21487,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21538,18 +21529,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21574,13 +21565,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21595,7 +21586,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21610,13 +21601,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21625,19 +21616,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21662,13 +21653,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21681,7 +21672,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21694,9 +21685,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21705,19 +21696,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29352,6 +29343,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29368,37 +29390,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29409,83 +29400,83 @@
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:J44">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:Z18">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Z44">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AE18">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB44:AE44">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AJ18">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44:AJ44">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29543,8 +29534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -29613,14 +29604,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29701,14 +29692,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29746,14 +29737,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29791,14 +29782,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29839,13 +29830,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29886,13 +29877,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29933,13 +29924,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29980,13 +29971,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30027,13 +30018,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30074,13 +30065,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30227,37 +30218,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30286,9 +30277,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30325,10 +30316,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30355,9 +30346,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30388,8 +30379,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -30499,38 +30490,60 @@
     <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="112"/>
       <c r="B20" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="143"/>
+        <v>366</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>345</v>
+      </c>
       <c r="D20" s="73" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20, 'Dropdown Values'!$A$82:$B$104, 2, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="E20" s="154"/>
+        <v>n of </v>
+      </c>
+      <c r="E20" s="154">
+        <v>55</v>
+      </c>
       <c r="F20" s="156">
         <f t="shared" ref="F20:F38" si="0">SUM(E20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="154"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
+        <v>55</v>
+      </c>
+      <c r="G20" s="154">
+        <v>0</v>
+      </c>
+      <c r="H20" s="155">
+        <v>0</v>
+      </c>
+      <c r="I20" s="155">
+        <v>0</v>
+      </c>
+      <c r="J20" s="155">
+        <v>0</v>
+      </c>
       <c r="K20" s="156">
         <f>SUM(G20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
+      <c r="L20" s="155">
+        <v>0</v>
+      </c>
+      <c r="M20" s="155">
+        <v>0</v>
+      </c>
+      <c r="N20" s="155">
+        <v>0</v>
+      </c>
+      <c r="O20" s="155">
+        <v>0</v>
+      </c>
       <c r="P20" s="156">
         <f>SUM(L20:O20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="155"/>
+      <c r="Q20" s="155">
+        <v>0</v>
+      </c>
       <c r="R20" s="157">
         <f>SUM(F20,K20,P20,Q20)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="S20" s="112"/>
       <c r="T20" s="112"/>
@@ -31469,9 +31482,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31724,37 +31737,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31783,9 +31796,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31822,10 +31835,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31852,9 +31865,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31871,7 +31884,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31884,9 +31897,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37454,25 +37467,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37482,57 +37481,71 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:J18">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J18">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37578,8 +37591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="J66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37604,15 +37617,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37640,15 +37653,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37676,15 +37689,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37747,18 +37760,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37785,16 +37798,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37821,16 +37834,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37857,7 +37870,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37891,7 +37904,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -37999,18 +38012,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38037,16 +38050,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38073,7 +38086,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38109,7 +38122,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38145,7 +38158,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38253,18 +38266,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38291,16 +38304,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38327,16 +38340,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38363,7 +38376,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38399,7 +38412,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38507,18 +38520,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38545,16 +38558,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38581,16 +38594,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38617,16 +38630,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38653,13 +38666,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38727,18 +38740,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38765,16 +38778,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38801,16 +38814,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38837,7 +38850,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38873,7 +38886,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38946,22 +38959,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39018,28 +39031,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39062,11 +39075,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39081,7 +39094,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39096,10 +39109,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39120,11 +39133,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39137,7 +39150,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39150,8 +39163,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39747,15 +39760,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39783,15 +39796,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39819,15 +39832,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39855,15 +39868,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1091</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39891,12 +39904,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39965,15 +39978,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40001,15 +40014,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40037,15 +40050,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40073,15 +40086,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40292,41 +40305,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40346,41 +40359,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1094</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
         <v>136</v>
       </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40398,45 +40411,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40456,45 +40469,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40514,45 +40527,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40572,45 +40585,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40630,45 +40643,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40688,45 +40701,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40746,45 +40759,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40804,45 +40817,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40862,45 +40875,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40920,45 +40933,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40978,45 +40991,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41036,45 +41049,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41094,45 +41107,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41152,45 +41165,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41210,45 +41223,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41268,45 +41281,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41326,45 +41339,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41487,6 +41500,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41511,177 +41695,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41773,12 +41786,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41819,12 +41832,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41864,12 +41877,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42263,26 +42276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42553,6 +42546,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42563,19 +42576,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42596,6 +42596,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D7DF2-BFEA-492C-A531-C066A7E1FD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D79638-312B-4D26-9FD0-4B26C149C4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -6114,6 +6114,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6132,14 +6138,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6149,36 +6161,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6210,16 +6192,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6243,12 +6336,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6258,119 +6345,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6402,22 +6381,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6429,6 +6469,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6437,9 +6576,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6503,142 +6639,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7639,10 +7639,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7894,8 +7894,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8452,7 +8452,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8463,7 +8463,7 @@
         <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8474,7 +8474,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8485,7 +8485,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8507,7 +8507,7 @@
         <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>366</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -16320,10 +16320,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16333,16 +16333,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16354,138 +16354,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16532,6 +16532,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16542,16 +16552,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17607,12 +17607,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17627,34 +17627,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17664,37 +17664,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18126,34 +18126,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18165,34 +18165,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18217,6 +18217,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18226,14 +18234,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18614,14 +18614,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18740,14 +18740,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18804,14 +18804,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18868,14 +18868,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18935,13 +18935,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19001,13 +19001,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19067,13 +19067,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19133,13 +19133,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19199,13 +19199,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19265,13 +19265,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19475,60 +19475,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19553,13 +19553,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19574,7 +19574,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19589,13 +19589,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19604,19 +19604,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19641,13 +19641,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19660,7 +19660,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19673,9 +19673,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19684,19 +19684,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21487,37 +21487,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21529,18 +21529,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21565,13 +21565,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21586,7 +21586,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21601,13 +21601,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21616,19 +21616,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21653,13 +21653,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21685,9 +21685,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21696,19 +21696,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29343,37 +29343,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29390,6 +29359,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29534,7 +29534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -29604,14 +29604,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29692,14 +29692,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29737,14 +29737,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29782,14 +29782,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29830,13 +29830,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29877,13 +29877,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29924,13 +29924,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29971,13 +29971,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30018,13 +30018,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30065,13 +30065,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30218,37 +30218,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30277,9 +30277,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30316,10 +30316,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30346,9 +30346,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30379,8 +30379,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31482,9 +31482,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31737,37 +31737,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31796,9 +31796,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31835,10 +31835,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31865,9 +31865,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31897,9 +31897,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37467,11 +37467,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37481,25 +37495,11 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37617,15 +37617,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37653,15 +37653,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37689,15 +37689,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37760,18 +37760,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37798,16 +37798,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37834,16 +37834,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37870,7 +37870,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37904,7 +37904,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38012,18 +38012,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38050,16 +38050,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38086,7 +38086,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38122,7 +38122,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38158,7 +38158,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38266,18 +38266,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38304,16 +38304,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38340,16 +38340,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38376,7 +38376,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38412,7 +38412,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38520,18 +38520,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38558,16 +38558,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38594,16 +38594,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38630,16 +38630,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38666,13 +38666,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38740,18 +38740,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38778,16 +38778,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38814,16 +38814,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38850,7 +38850,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38886,7 +38886,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38959,22 +38959,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39031,28 +39031,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39075,11 +39075,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39094,7 +39094,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39109,10 +39109,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39133,11 +39133,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39150,7 +39150,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39163,8 +39163,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39760,15 +39760,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39796,15 +39796,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39832,15 +39832,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39868,15 +39868,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39904,12 +39904,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39978,15 +39978,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40014,15 +40014,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40050,15 +40050,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40086,15 +40086,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40305,41 +40305,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40359,41 +40359,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1094</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40411,45 +40411,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40469,45 +40469,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40527,45 +40527,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40585,45 +40585,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40643,45 +40643,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40701,45 +40701,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40759,45 +40759,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40817,45 +40817,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40875,45 +40875,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40933,45 +40933,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40991,45 +40991,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41049,45 +41049,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41107,45 +41107,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41165,45 +41165,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41223,45 +41223,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41281,45 +41281,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41339,45 +41339,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41500,6 +41500,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41524,177 +41695,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41786,12 +41786,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41832,12 +41832,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41877,12 +41877,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42276,6 +42276,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42546,36 +42575,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42596,27 +42617,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D79638-312B-4D26-9FD0-4B26C149C4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F884BD16-EEBC-4F6B-94F1-EC83C1D1BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="2" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -3688,9 +3688,6 @@
     <t>Put that money into business.</t>
   </si>
   <si>
-    <t>Dispose of it as we see fit.</t>
-  </si>
-  <si>
     <t>Put the money where it's needed!</t>
   </si>
   <si>
@@ -3752,6 +3749,9 @@
   </si>
   <si>
     <t>Enhancing sub-regional and regional connectivity</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -6114,12 +6114,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6138,6 +6132,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6147,20 +6168,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6192,29 +6210,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6237,18 +6279,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6257,18 +6287,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,12 +6297,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6292,6 +6304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6315,41 +6333,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6381,83 +6402,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,105 +6429,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6576,6 +6437,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6639,6 +6503,142 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7639,10 +7639,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7684,7 +7684,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7704,7 +7704,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7894,7 +7894,7 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -8186,7 +8186,7 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8308,7 +8308,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8452,7 +8452,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8463,7 +8463,7 @@
         <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8474,7 +8474,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8485,7 +8485,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8507,7 +8507,7 @@
         <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -8575,7 +8575,7 @@
         <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8586,7 +8586,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8597,7 +8597,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8718,7 +8718,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8762,7 +8762,7 @@
         <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8795,7 +8795,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16320,10 +16320,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16333,16 +16333,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16354,138 +16354,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16532,6 +16532,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16542,16 +16552,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17607,12 +17607,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17627,34 +17627,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="225" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17664,37 +17664,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18126,34 +18126,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18165,34 +18165,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18217,14 +18217,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18234,6 +18226,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18614,14 +18614,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18740,14 +18740,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18804,14 +18804,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18868,14 +18868,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18935,13 +18935,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19001,13 +19001,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19067,13 +19067,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19133,13 +19133,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19199,13 +19199,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19265,13 +19265,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19475,60 +19475,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19553,13 +19553,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19574,7 +19574,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19589,13 +19589,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19604,19 +19604,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19641,13 +19641,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19660,7 +19660,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19673,9 +19673,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19684,19 +19684,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21487,37 +21487,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21529,18 +21529,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21565,13 +21565,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21586,7 +21586,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21601,13 +21601,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21616,19 +21616,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21653,13 +21653,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21685,9 +21685,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21696,19 +21696,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29343,6 +29343,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29359,37 +29390,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29604,14 +29604,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29692,14 +29692,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29737,14 +29737,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29782,14 +29782,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29830,13 +29830,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29877,13 +29877,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29924,13 +29924,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29971,13 +29971,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30018,13 +30018,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30065,13 +30065,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30218,37 +30218,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30277,9 +30277,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30316,10 +30316,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30346,9 +30346,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30379,8 +30379,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31482,9 +31482,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31737,37 +31737,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31796,9 +31796,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31835,10 +31835,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31865,9 +31865,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31897,9 +31897,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37467,25 +37467,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37495,11 +37481,25 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37591,8 +37591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:H57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37617,15 +37617,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37653,15 +37653,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37689,15 +37689,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37760,18 +37760,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37798,16 +37798,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37834,16 +37834,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37870,7 +37870,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37904,7 +37904,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38012,18 +38012,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38050,16 +38050,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38086,7 +38086,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38122,7 +38122,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38158,7 +38158,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38266,18 +38266,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38304,16 +38304,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38340,16 +38340,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38376,7 +38376,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38412,7 +38412,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38520,18 +38520,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38558,16 +38558,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38594,16 +38594,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38630,16 +38630,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38666,13 +38666,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38740,18 +38740,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38778,16 +38778,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38814,16 +38814,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38850,7 +38850,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38886,7 +38886,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38959,22 +38959,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39031,28 +39031,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39075,11 +39075,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39094,7 +39094,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39109,10 +39109,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39133,11 +39133,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39150,7 +39150,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39163,8 +39163,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39255,47 +39255,47 @@
         <v>185</v>
       </c>
       <c r="C46" s="118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="119">
         <f t="shared" ref="D46:D51" si="0">SUM(C46)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="118">
         <v>0</v>
       </c>
       <c r="F46" s="118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46" s="118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="203">
         <f>SUM(E46:H46)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J46" s="118">
         <v>0</v>
       </c>
       <c r="K46" s="118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" s="118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M46" s="118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N46" s="203">
         <f>SUM(J46:M46)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O46" s="116">
         <f t="shared" ref="O46:O52" si="1">SUM(D46,I46,N46)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -39479,7 +39479,7 @@
         <v>3.98</v>
       </c>
       <c r="K49" s="121">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L49" s="121">
         <v>3.2</v>
@@ -39489,11 +39489,11 @@
       </c>
       <c r="N49" s="122">
         <f t="shared" si="3"/>
-        <v>14.12</v>
+        <v>13.569999999999999</v>
       </c>
       <c r="O49" s="116">
         <f t="shared" si="1"/>
-        <v>36.49</v>
+        <v>35.94</v>
       </c>
       <c r="P49" s="112"/>
       <c r="Q49" s="112"/>
@@ -39519,47 +39519,47 @@
         <v>189</v>
       </c>
       <c r="C50" s="118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D50" s="122">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E50" s="121">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F50" s="121">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G50" s="121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50" s="122">
         <f>SUM(E50:H50)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J50" s="121">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K50" s="121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50" s="121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="122">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O50" s="116">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P50" s="112"/>
       <c r="Q50" s="112"/>
@@ -39652,55 +39652,55 @@
       </c>
       <c r="C52" s="187">
         <f t="shared" ref="C52:M52" si="4">SUM(C45:C51)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D52" s="187">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E52" s="187">
         <f t="shared" si="4"/>
-        <v>96.960000000000008</v>
+        <v>71.960000000000008</v>
       </c>
       <c r="F52" s="187">
         <f>SUM(F45:F51)</f>
-        <v>54.960000000000008</v>
+        <v>34.96</v>
       </c>
       <c r="G52" s="187">
         <f>SUM(G45:G51)</f>
-        <v>43.46</v>
+        <v>30.46</v>
       </c>
       <c r="H52" s="187">
         <f t="shared" si="4"/>
-        <v>28.4</v>
+        <v>21.4</v>
       </c>
       <c r="I52" s="187">
         <f t="shared" si="2"/>
-        <v>223.78000000000003</v>
+        <v>158.78000000000003</v>
       </c>
       <c r="J52" s="187">
         <f>SUM(J45:J51)</f>
-        <v>50.959999999999994</v>
+        <v>45.959999999999994</v>
       </c>
       <c r="K52" s="187">
         <f>SUM(K45:K51)</f>
-        <v>31.5</v>
+        <v>23.95</v>
       </c>
       <c r="L52" s="187">
         <f>SUM(L45:L51)</f>
-        <v>36.4</v>
+        <v>24.4</v>
       </c>
       <c r="M52" s="187">
         <f t="shared" si="4"/>
-        <v>30.380000000000003</v>
+        <v>20.38</v>
       </c>
       <c r="N52" s="187">
         <f t="shared" si="3"/>
-        <v>149.23999999999998</v>
+        <v>114.69</v>
       </c>
       <c r="O52" s="188">
         <f t="shared" si="1"/>
-        <v>399.02</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="P52" s="112"/>
       <c r="Q52" s="112"/>
@@ -39760,15 +39760,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39796,15 +39796,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39832,15 +39832,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39868,15 +39868,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="B57" s="312" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39904,12 +39904,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39978,15 +39978,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40014,15 +40014,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40050,15 +40050,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40086,15 +40086,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="B63" s="312" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40305,41 +40305,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40359,41 +40359,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
         <v>136</v>
       </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40411,45 +40411,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40469,45 +40469,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40527,45 +40527,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40585,45 +40585,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40643,45 +40643,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40701,45 +40701,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40759,45 +40759,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40817,45 +40817,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40875,45 +40875,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40933,45 +40933,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40991,45 +40991,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41049,45 +41049,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41107,45 +41107,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41165,45 +41165,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41223,45 +41223,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41281,45 +41281,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41339,45 +41339,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41500,6 +41500,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41524,177 +41695,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41786,12 +41786,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41832,12 +41832,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41877,12 +41877,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -41989,13 +41989,13 @@
     </row>
     <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>406</v>
@@ -42008,7 +42008,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>408</v>
@@ -42023,13 +42023,13 @@
     </row>
     <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="76" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>409</v>
@@ -42042,7 +42042,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>409</v>
@@ -42057,13 +42057,13 @@
     </row>
     <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>409</v>
@@ -42076,7 +42076,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>410</v>
@@ -42091,13 +42091,13 @@
     </row>
     <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>383</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>407</v>
@@ -42110,7 +42110,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>410</v>
@@ -42125,13 +42125,13 @@
     </row>
     <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="78" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>380</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E13" s="75" t="s">
         <v>409</v>
@@ -42144,7 +42144,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I13" s="75" t="s">
         <v>409</v>
@@ -42276,35 +42276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42575,28 +42546,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42617,6 +42596,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Success.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F884BD16-EEBC-4F6B-94F1-EC83C1D1BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058756D-BED7-4940-9431-BED56FF2F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="2" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -6114,6 +6114,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6132,14 +6138,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6149,36 +6161,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6210,16 +6192,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6243,12 +6336,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6258,119 +6345,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6402,22 +6381,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6429,6 +6469,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6437,9 +6576,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6503,142 +6639,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7639,10 +7639,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -16320,10 +16320,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16333,16 +16333,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16354,138 +16354,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16532,6 +16532,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16542,16 +16552,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17607,12 +17607,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17627,34 +17627,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17664,37 +17664,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18126,34 +18126,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18165,34 +18165,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18217,6 +18217,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18226,14 +18234,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18614,14 +18614,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18740,14 +18740,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18804,14 +18804,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18868,14 +18868,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18935,13 +18935,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19001,13 +19001,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19067,13 +19067,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19133,13 +19133,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19199,13 +19199,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19265,13 +19265,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19475,60 +19475,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19553,13 +19553,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19574,7 +19574,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19589,13 +19589,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19604,19 +19604,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19641,13 +19641,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19660,7 +19660,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19673,9 +19673,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19684,19 +19684,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21487,37 +21487,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21529,18 +21529,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21565,13 +21565,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21586,7 +21586,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21601,13 +21601,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21616,19 +21616,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21653,13 +21653,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21685,9 +21685,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21696,19 +21696,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29343,37 +29343,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29390,6 +29359,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29604,14 +29604,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29692,14 +29692,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29737,14 +29737,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29782,14 +29782,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29830,13 +29830,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29877,13 +29877,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29924,13 +29924,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29971,13 +29971,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30018,13 +30018,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30065,13 +30065,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30218,37 +30218,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30277,9 +30277,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30316,10 +30316,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30346,9 +30346,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30379,8 +30379,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31482,9 +31482,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31737,37 +31737,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31796,9 +31796,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31835,10 +31835,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31865,9 +31865,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31897,9 +31897,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37467,11 +37467,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37481,25 +37495,11 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37591,8 +37591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="J63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37617,15 +37617,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37653,15 +37653,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37689,15 +37689,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37760,18 +37760,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37798,16 +37798,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37834,16 +37834,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37870,7 +37870,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37904,7 +37904,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38012,18 +38012,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38050,16 +38050,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38086,7 +38086,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38122,7 +38122,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38158,7 +38158,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38266,18 +38266,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38304,16 +38304,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38340,16 +38340,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38376,7 +38376,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38412,7 +38412,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38520,18 +38520,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38558,16 +38558,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38594,16 +38594,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38630,16 +38630,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38666,13 +38666,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38740,18 +38740,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38778,16 +38778,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38814,16 +38814,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38850,7 +38850,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38886,7 +38886,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38959,22 +38959,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39031,28 +39031,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39075,11 +39075,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39094,7 +39094,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39109,10 +39109,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39133,11 +39133,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39150,7 +39150,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39163,8 +39163,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39760,15 +39760,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39796,15 +39796,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39832,15 +39832,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39868,15 +39868,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1112</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39904,12 +39904,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39978,15 +39978,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40014,15 +40014,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40050,15 +40050,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40086,15 +40086,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40305,41 +40305,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40359,41 +40359,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1092</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1093</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40411,45 +40411,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40469,45 +40469,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40527,45 +40527,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40585,45 +40585,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40643,45 +40643,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40701,45 +40701,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40759,45 +40759,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40817,45 +40817,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40875,45 +40875,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40933,45 +40933,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40991,45 +40991,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41049,45 +41049,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41107,45 +41107,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41165,45 +41165,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41223,45 +41223,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41281,45 +41281,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41339,45 +41339,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41500,6 +41500,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41524,177 +41695,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41786,12 +41786,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41832,12 +41832,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41877,12 +41877,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42276,6 +42276,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42546,36 +42575,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42596,27 +42617,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>
